--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -397,7 +397,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>&lt;img src="/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
+      <t>&lt;img src=`data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhAPEBIPEA8QEBAPEA8QDw8PEA8PFRIWFhUSFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0OFQ8PFSsZFRkrKysrKysrKysrLS03Kys3Ny03Nzc3LTcrLSstLS0rKystLSsrKy0tKy0rKysrKysrK//AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAEDBAUGB//EADQQAAEDAwMDAwIFAwQDAAAAAAEAAhEDBCESMUEFUWETInEGMhRCUoGRI6HBB2Kx0RVy8P/EABgBAAMBAQAAAAAAAAAAAAAAAAABAgME/8QAHBEBAQEBAQEBAQEAAAAAAAAAAAERAiESMQNB/9oADAMBAAIRAxEAPwDmbZrXPDWYMcmASrN71AsPpiDA3B2KxWvIyMHwhc+TJUXmVrrp+l3f9Jzy7LBJBO4Wtb3DXgOBBBG3ZcNTrEAgbOEFXunXemW8GFHXAldjTMfYZEwRMwrLqJcJC5CheuYTpMTUyt636vH3D5IWNmKR3lmc91jX/TKpE4AGc4XWes2p7mkT2UV42WmYKJ1huEp13tJORJ32U1nNaoGvMzOSt/8A8cHx4MgcKjX6SWP1a2tk7QYC2n9E4q3fR9JIHtPYrPrWzm7rtABVZoqAa2gBrxsQsHqNu5vtcNjIPCc70ryxdKaFZB1P90b8dlLfMYCA1aanFFJTup4BkZ4UBKBhJJkkEdJMkgxBKEzUSDMUyIpoQRk8p0yZEnCaU6ASQKSSCSBIpmFE4SgBToEQT0HlECgRSnKBJIQU6rSxUTEKSoITtZIWWtEbFIwwQfKJtKE4Yd0CRaZUkgjHvlbbXAjysGjTPYgq7ReQse4uNNgAzkHwrorahicbrIp1u+VfoXQ7LDFJ2kgiFLVpioZ57H/Ci9QHIT+p5gpAgxzMAEd1cDBUaab9iIDoEhZrrx4PDlfo3rHNk+09lXNNznU+hGk4DUCHE6Ssi5oFrokOPhdH12/0mk+m4EsJORIyIXMurkvLjEkzjAXRyzoS07cpek7eMJg/MqT8QYgYWiQhmPKDSrD6ghvflWrS1Y8F7y5jB2EknsEaeKlG0LgXFzWjyd07LadiFad05zs/a3jVuVUq0nNkN/kKb0r5afTfp2rXdpYWz3Jwrt99D3dMSGtqD/Y4f8FZfQepVKNQFuXkw0GYkrrOqdTdSaHXM1HGDDSWhv8ACX0McNcUXU3FjwWuG7TuFFK6nqVxQvGEU2kXLRqYckvA3a5cqQrl1F8FKYoU6ZEESYBOkR0yaU0plgwpqCrqWi6EG0mUWuEOHw4bqG46a5uR7mqza5aCMnsrVzX0NzvGyjabnylKGUlZClKUKSCC+oNIHPdWrSo3RkZgrNKka/EKK0bvUHUxSxuWgtgTnmVnU7r2OHgKuapiELDuPCVOOjtqw0jAOEuoV2AUtgS8T/6qr0+oPSk8KlfVdTWH/cVnl023XFMgOpmO4Vd7oG6oWVaKb3bkEKOjczrB5BS+Ta3SK+ppzsStCQsDoYPuI4K0L2pDW8EuAUdQL2kHyoGV2hry47O0gclQtc5s/wArEF0STP6i5Pnkal6lcaiY24We05R1HZTESV0RNMUyd7YQBUSza09RAO3K6S0thpFT8jPsG+o91QtelODGmPc+I+F0RohlFoiXMOx7HlZddNOYy+oVHOLYBHfCzq/ytuo8AHzyudvnZKmeqQMrBr2vG7TKs3fV3VSBuDiD5QdJtW1Xem4gEkEHxyFsN+mQNWRH5T/hO05zq59O2IoOq7es6mfTG4EjdcfV+4g7gmfmV2P0hYkVXEyYduSThcr1ZoFaqG7eo6P5V8XWfcxVSCaUpWjISRKaU8pESZwTyilBhapGIQjaijG70BsvYDsSf+FN9TUIgjnCz+lVCKjSOMj5XTX9qK1PzuPlZ6McE9M1ytX9k5hhypStYViVOgaUUoCskmKQUrTUmyhghEH4SJSA6dxDHN7kKI1TEcDKiKUp4axRrQ1zf1QnpujKrgog5GBo9Kr6XOJIgg4UpvNTGA7h4z+6zAYSFWMfuovOh04raqbneCuWDsrUZfgUNP5jIWQEc84ExKdoyEDkmuVEkrnhW+hWZq1GtHGSewVBxldz9C2MUnViMuMA+Ajo407e3iT2HtkSoepVoHYkbwr73b522G2e656+pkFxe8uxOdp7BYdVrFK5rE4kbLIuoW7+C/pGofzbDlZf4TuE+aanbECeHcHaF1XTOqtcwNrMpy37SHFzie65uraHhH09pa6SJEZhLo49E+nqTSDow4gk/uvMurUy2tVadw90/wAr076Vc3BC4T63s/SuqnZ/vH7q/wCTP+jBTJSmW7E4KUpkkEIFPKFIFIClE1yBOEHF6zvHMc0jYeOFs2nXR6sRpY4gRwuca5JzuVNhuv61c0YcCA6NiO65GqwE+0Jn1Sd0AfCIBMaihCxyFz1RICkAhlPKRjRxhRtUjjhL/TQFMncglUBpAoU6Ak1pkIToCRr8RCQhRpApGlKBEglBEF6Z9MVCLSnjgrzNelfTLT+Fpg9j/CnpUTVBJJGcEeJWX1C2JLMzpILvg8LTunxDBy4BDAjIkz/cbBc/Va8omaXgt/K3HwVSZbfd4kLat4k4DXHcKD04eQQM5BHb4U6pkU7OWnjcKl+F01NIx+Se66UsAdpUNzbSQ5omDKNGNL6Ut4k+Vzv+pbZrs76F1n0/TIxwTI8LjP8AUouF0JONA0+Fr/Nn25OpTLcFCnc6d0K6GWHSTFDKNLBJ0Ep5QMGnJUUp5QB6ktSBMkByhlSMAScwIAAUJKRTICMIk0J0ASfUhSTML0ClKjKAQRIQlKAJPKcBM5AFwhRDZAd0gklCnCZAO05XqPTT/RpcewLzOjTld7a3MUKectEQo7q+YvO3BME/lHzuU7WR4A28lVrarIB3ccz2HZW2OE5IGNzwuetYNpMh0NOPcJyFE6oHkwDhUaNSnLnltQODiPUbJ1N4JCP1Qwk6pk44JnwpUvXONDjnieSITUnbkIequ9jD/wDZCz2XgDHMOHOENnugNjpF44V9BBg5DuPhVP8AVO0Bp0awHuDi0nwQs1l76VdoJM+3HC0P9S7s/hqA4c6f7LX+flR3+PNCUTVGSna5dDETihlOUMII8pkkkESJrZQhTU0GaIQuCKo5ASgGlH6mIURKZMDSTApJUGSRISgiSTJ0GJqZ7UgVpuoNqAuBggDAH3FMMiE4CmrMgwowEgcJOWha9IqVGGoyHaTBb+aO8KCpZOaSHAtIE55RoVghU7aU4G6F9IjBQABEwJoV7pTGeoz1DpYXDUewStEPa0CHsnIJGFv1n6ZZsJwq/T6dN9zFJs02OJ1k7jgq71WjqJI3WXVaxPYVsf4Vo1JOndxER2XPW9ZzDlaDbvIIMEndZ2Llb1Fpbq0mZAERgYyqFch9ZgIbLZnGMbKOp1JrcF2TmQdliX/VJqBzCcc90pzT103Va/tpjuf4WVfiabnjDmZHYgd1J1W7DqdGo2IIIPhyy7y9BYWgwSB+6r5GsildO1hxk5XRfU/UxdMoMb7WsEmf1RssC2Dcj8xgA8BXy9rcETHKq+M+qo/+HcRLXNPhUri2cww4QVs/inA4GFR6tVLi0nsr463xnVAFMSkhWpHlOhBThAOnBTJiUAUpimRJAEJIyUJQCCUpgkgkzAgrIggegwpwhKNiAZXLOuWkFuY4VSFPahFDY61XoVWMcxmiqMPAEB3lYuhWTTSDQFnpla3T2faS34wpH1XOPuJOMT2R02A7LSLppMpljQWEnWNyD3U3o8YpbBwk5s7lXKtKNhKgnuEvsYVtZBxgkgeBKKvZaT7SHgmOx/cJg9SMPJR9aGt0Z5ZOoAYjEKW4rZkLLpV4VllWUYuJblgIlZ1Wk7eVfc7jsE7QMTsQnDYFYOOSgYMrWurf8zduVWoWgccmE9C5TrBzPT2LTgd/Kk6f0tz6jQQCEdLprWFrtycLe6XSAqsHglRapS6p9N06DHVqji5xPta0Q0ErnXVuy6L6+vHa20QfZAdHMrk4Kr9ZdLQqTuVSvipFTrukquZiajTJAIm0yZxtv4WpBST6U0IBJJwEQagBTozTQJESSZJMGSTpQg1iFE5W3MULqRUaauQrdhaF7gxolzgYHcoGUJPZWKVJ7SC2ZGxG4T+iVatJzHFj2lrgYIPCntacjBypXUnl2p3uMydWSVYqVCdMtGMe0RKi9hVDuETHTMq0KdM5cIRsoMP2qPqBR1OA9qKndEH3SFeFo0IX6RvB/ZK3TSMZULdTGOc2CZEbBS1bdpa1w1Q4Z1NLSD/lKleGIgED7YxCarcawG5EbZwoUputANijcABkfwnewjdpcEDYfhodHO8JykqveAcKWlWUfV6LWVNLNgBOZzyq9N61io2qNSQSfhS0zIjkLMpVMK3SqRtyElJrtw0xMIOn08hwzG48KtdPiAd1L0qodROwg5SNp21UGoBHtyfhWre6b+JZGQMLLoP9xM8Z+Fa6Zb6Cbur7aYOByeynD1R+sLrXdOxhgDVny0NLiTPAUF1X11XPOznE/sr7bQERkiJlXPGd9ZTqpPgKzQaAAXAEOcAO+VYrW4aNVPbZwMHPhUahjQ4GTvH6SqlTjZr2LW1C1jWOgNnP2zv8oOo9PIbNNzYcYj/tZ9vcE+pMEuAzzvwpLcvNUUmz90w7EY5VaTOq0y06XYKFrZwul6paNqQ5ramtoGvYsgbknhKrTp6BLGwRu0HbuCj6DmntgwipDur9Tpoc9rabj7/1iAB8obzpb6QkuYR3aZRoUnlRlOmVFhoTwiATFMEEYamATakhi4Aeylp5wRCnD2jZEKbjkNjyVz2mgfafKhJczyFq02EbvA7+0lBSeCCHDJOHQl9BVo1ziVZe8DZHU6aOHgjuEdPppiQZPZLdGM2pe5iFLTeCJEg+FdNoB94DfO5UjLVhnTUaABOW5Pwq8LFE+oRBOPhM6mQMt1fPKkDST7iQP7qRtMRyY5Lil4Zm0QSPy6gMAjBU1W3a0QHe/nwnFWkBpIaXHnsowBONuySkRuCP++FZtq1QtLQJB/SAP7qO5gsMiI2VWyuXadIVQlWpT1PdO4KjfRhW7RnucSpKrJV6qKNN0KxbVDKAUjOynYxCj13B2DxyjoN2DTgqvWkYiFNaYA7DKmnGhQtxrYzyASOVF9X3Z9T0G4p0wAB3McrR6BaFz9TzBBBaO6xPrERc1Izsjj2jrxjcrqLSlqaDqAbGB5XKyt7pBPp47qv6TxHP6tdSDWU3bSRAhczVOy2Oq1QWRnVOFjVyJwjj8HSfp5GrIJEHbceQmNU6nEE5wTzCjoVCJgxOEdF5DpG/8q0L/Trl4kNecxqByCBwr9e7OoPGHNO0DQW9iFF0uo0gy0ag4y7mEV/AaCOT/ZZdX1chdTu/WDIGhzcS3DSCmt7eQ6m8tfTAmA4B2rgShtWtLQD/ACp6Ns3wle8P5ZVWxAiZaCeeB2TOtWSYJ23PK3NnAjMbSNQ/hValJpI9oAnMTlE7HyxalONuVaFg2AXGEXU7bQ5nDScFWPwbTkugESIErT6TijUts6QQg/CjuFeZauadQ93zgIvwXORPEqfsfIB6Qd7tRHcYJ+EqtcT/AEy/TwHZKdJRUw9OpUOAIHPCldSO/I8pJKTOxz4yD4ClpXYEh4eCOBiPlJJBq76rSRBdJ7py2PCSSZCpvA8p/XwQNjuE6Sk8RtY0/k/spRTI2bvxKSSZo7uppaZGThU7CrEhMktZPCF6kP8ABVwJJIVBfh3fl3K2bXpYc2SMFv7h3cFMks7Vuf6gwjcznCtWNE6dW3b5SSRpx0XRaR1tP6cuXGfUlSbmsZB95gjskkr/AJp7/GYtrodQQ4F0DjCSS07/ABlEHWXjUGgDHIxKzXhOkjmeCmaiJymSVYS/0p2SSYjfyrPUqntaOAe/hJJZ9T1Uqz0ulrptJLQBIzurNS3EiM+QUkll1PWgXfd+aB/JVXql0xsBmoOkHPZOklx+lay+oVy5w3wOVf6dRLmzymSW3U8Tz+rwou5aHD5UlOiI+0j9ykksGj//2Q==` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
     </r>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>「누군 놀고먹고 있는 줄 아십니까? 
 저도 일 중이라고요」
 (딸깍)
-&lt;img src="/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src={`${process.env.PUBLIC_URL}/image/click.jpg`} style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
@@ -894,7 +894,7 @@
   &lt;div style="font-size:5px;"&gt;ㅤ&lt;/div&gt;
   - 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴) (진짜임)
   &lt;/div&gt;
-  &lt;img src="/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+  &lt;img src=`${process.env.PUBLIC_URL}/image/gold.jpg` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[]</t>
@@ -936,7 +936,7 @@
 사촌 정도 하겠습니다."
 ㅤ
 - 2023.10.24. Instagram 中
-&lt;img src="/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
+&lt;img src=`${process.env.PUBLIC_URL}/image/wind.png` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"19.3px"},
@@ -1040,7 +1040,7 @@
 - 2023년 9월 24일 방천구장에서
 ㅤ
 이후로 민석을 보는 눈빛이 심상치 않다.
-&lt;img src="/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src=`${process.env.PUBLIC_URL}/image/marine.svg` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"20px", "textAlign": "left"},
@@ -1204,7 +1204,7 @@
 「돼」
 ㅤ
 -2023.10.28. 이동진 환골탈태를 준비하다.
-&lt;img src="/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
+&lt;img src=`${process.env.PUBLIC_URL}/image/onePunch.png` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"16px", "font-family": "Stylish"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="434324846"/>
-        <c:axId val="1894663213"/>
+        <c:axId val="813484616"/>
+        <c:axId val="233153734"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434324846"/>
+        <c:axId val="813484616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894663213"/>
+        <c:crossAx val="233153734"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894663213"/>
+        <c:axId val="233153734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434324846"/>
+        <c:crossAx val="813484616"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1619660285"/>
-        <c:axId val="156110527"/>
+        <c:axId val="1804192638"/>
+        <c:axId val="3705180"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1619660285"/>
+        <c:axId val="1804192638"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156110527"/>
+        <c:crossAx val="3705180"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156110527"/>
+        <c:axId val="3705180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1619660285"/>
+        <c:crossAx val="1804192638"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="380802098"/>
-        <c:axId val="1918041789"/>
+        <c:axId val="1906324906"/>
+        <c:axId val="482390945"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="380802098"/>
+        <c:axId val="1906324906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918041789"/>
+        <c:crossAx val="482390945"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1918041789"/>
+        <c:axId val="482390945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380802098"/>
+        <c:crossAx val="1906324906"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1205692469"/>
-        <c:axId val="1509708525"/>
+        <c:axId val="1002379492"/>
+        <c:axId val="2142300934"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1205692469"/>
+        <c:axId val="1002379492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509708525"/>
+        <c:crossAx val="2142300934"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509708525"/>
+        <c:axId val="2142300934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1205692469"/>
+        <c:crossAx val="1002379492"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="142790706"/>
-        <c:axId val="1789317631"/>
+        <c:axId val="391652129"/>
+        <c:axId val="1678817499"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142790706"/>
+        <c:axId val="391652129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1789317631"/>
+        <c:crossAx val="1678817499"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1789317631"/>
+        <c:axId val="1678817499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142790706"/>
+        <c:crossAx val="391652129"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -397,7 +397,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>&lt;img src=`data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhAPEBIPEA8QEBAPEA8QDw8PEA8PFRIWFhUSFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0OFQ8PFSsZFRkrKysrKysrKysrLS03Kys3Ny03Nzc3LTcrLSstLS0rKystLSsrKy0tKy0rKysrKysrK//AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAEDBAUGB//EADQQAAEDAwMDAwIFAwQDAAAAAAEAAhEDBCESMUEFUWETInEGMhRCUoGRI6HBB2Kx0RVy8P/EABgBAAMBAQAAAAAAAAAAAAAAAAABAgME/8QAHBEBAQEBAQEBAQEAAAAAAAAAAAERAiESMQNB/9oADAMBAAIRAxEAPwDmbZrXPDWYMcmASrN71AsPpiDA3B2KxWvIyMHwhc+TJUXmVrrp+l3f9Jzy7LBJBO4Wtb3DXgOBBBG3ZcNTrEAgbOEFXunXemW8GFHXAldjTMfYZEwRMwrLqJcJC5CheuYTpMTUyt636vH3D5IWNmKR3lmc91jX/TKpE4AGc4XWes2p7mkT2UV42WmYKJ1huEp13tJORJ32U1nNaoGvMzOSt/8A8cHx4MgcKjX6SWP1a2tk7QYC2n9E4q3fR9JIHtPYrPrWzm7rtABVZoqAa2gBrxsQsHqNu5vtcNjIPCc70ryxdKaFZB1P90b8dlLfMYCA1aanFFJTup4BkZ4UBKBhJJkkEdJMkgxBKEzUSDMUyIpoQRk8p0yZEnCaU6ASQKSSCSBIpmFE4SgBToEQT0HlECgRSnKBJIQU6rSxUTEKSoITtZIWWtEbFIwwQfKJtKE4Yd0CRaZUkgjHvlbbXAjysGjTPYgq7ReQse4uNNgAzkHwrorahicbrIp1u+VfoXQ7LDFJ2kgiFLVpioZ57H/Ci9QHIT+p5gpAgxzMAEd1cDBUaab9iIDoEhZrrx4PDlfo3rHNk+09lXNNznU+hGk4DUCHE6Ssi5oFrokOPhdH12/0mk+m4EsJORIyIXMurkvLjEkzjAXRyzoS07cpek7eMJg/MqT8QYgYWiQhmPKDSrD6ghvflWrS1Y8F7y5jB2EknsEaeKlG0LgXFzWjyd07LadiFad05zs/a3jVuVUq0nNkN/kKb0r5afTfp2rXdpYWz3Jwrt99D3dMSGtqD/Y4f8FZfQepVKNQFuXkw0GYkrrOqdTdSaHXM1HGDDSWhv8ACX0McNcUXU3FjwWuG7TuFFK6nqVxQvGEU2kXLRqYckvA3a5cqQrl1F8FKYoU6ZEESYBOkR0yaU0plgwpqCrqWi6EG0mUWuEOHw4bqG46a5uR7mqza5aCMnsrVzX0NzvGyjabnylKGUlZClKUKSCC+oNIHPdWrSo3RkZgrNKka/EKK0bvUHUxSxuWgtgTnmVnU7r2OHgKuapiELDuPCVOOjtqw0jAOEuoV2AUtgS8T/6qr0+oPSk8KlfVdTWH/cVnl023XFMgOpmO4Vd7oG6oWVaKb3bkEKOjczrB5BS+Ta3SK+ppzsStCQsDoYPuI4K0L2pDW8EuAUdQL2kHyoGV2hry47O0gclQtc5s/wArEF0STP6i5Pnkal6lcaiY24We05R1HZTESV0RNMUyd7YQBUSza09RAO3K6S0thpFT8jPsG+o91QtelODGmPc+I+F0RohlFoiXMOx7HlZddNOYy+oVHOLYBHfCzq/ytuo8AHzyudvnZKmeqQMrBr2vG7TKs3fV3VSBuDiD5QdJtW1Xem4gEkEHxyFsN+mQNWRH5T/hO05zq59O2IoOq7es6mfTG4EjdcfV+4g7gmfmV2P0hYkVXEyYduSThcr1ZoFaqG7eo6P5V8XWfcxVSCaUpWjISRKaU8pESZwTyilBhapGIQjaijG70BsvYDsSf+FN9TUIgjnCz+lVCKjSOMj5XTX9qK1PzuPlZ6McE9M1ytX9k5hhypStYViVOgaUUoCskmKQUrTUmyhghEH4SJSA6dxDHN7kKI1TEcDKiKUp4axRrQ1zf1QnpujKrgog5GBo9Kr6XOJIgg4UpvNTGA7h4z+6zAYSFWMfuovOh04raqbneCuWDsrUZfgUNP5jIWQEc84ExKdoyEDkmuVEkrnhW+hWZq1GtHGSewVBxldz9C2MUnViMuMA+Ajo407e3iT2HtkSoepVoHYkbwr73b522G2e656+pkFxe8uxOdp7BYdVrFK5rE4kbLIuoW7+C/pGofzbDlZf4TuE+aanbECeHcHaF1XTOqtcwNrMpy37SHFzie65uraHhH09pa6SJEZhLo49E+nqTSDow4gk/uvMurUy2tVadw90/wAr076Vc3BC4T63s/SuqnZ/vH7q/wCTP+jBTJSmW7E4KUpkkEIFPKFIFIClE1yBOEHF6zvHMc0jYeOFs2nXR6sRpY4gRwuca5JzuVNhuv61c0YcCA6NiO65GqwE+0Jn1Sd0AfCIBMaihCxyFz1RICkAhlPKRjRxhRtUjjhL/TQFMncglUBpAoU6Ak1pkIToCRr8RCQhRpApGlKBEglBEF6Z9MVCLSnjgrzNelfTLT+Fpg9j/CnpUTVBJJGcEeJWX1C2JLMzpILvg8LTunxDBy4BDAjIkz/cbBc/Va8omaXgt/K3HwVSZbfd4kLat4k4DXHcKD04eQQM5BHb4U6pkU7OWnjcKl+F01NIx+Se66UsAdpUNzbSQ5omDKNGNL6Ut4k+Vzv+pbZrs76F1n0/TIxwTI8LjP8AUouF0JONA0+Fr/Nn25OpTLcFCnc6d0K6GWHSTFDKNLBJ0Ep5QMGnJUUp5QB6ktSBMkByhlSMAScwIAAUJKRTICMIk0J0ASfUhSTML0ClKjKAQRIQlKAJPKcBM5AFwhRDZAd0gklCnCZAO05XqPTT/RpcewLzOjTld7a3MUKectEQo7q+YvO3BME/lHzuU7WR4A28lVrarIB3ccz2HZW2OE5IGNzwuetYNpMh0NOPcJyFE6oHkwDhUaNSnLnltQODiPUbJ1N4JCP1Qwk6pk44JnwpUvXONDjnieSITUnbkIequ9jD/wDZCz2XgDHMOHOENnugNjpF44V9BBg5DuPhVP8AVO0Bp0awHuDi0nwQs1l76VdoJM+3HC0P9S7s/hqA4c6f7LX+flR3+PNCUTVGSna5dDETihlOUMII8pkkkESJrZQhTU0GaIQuCKo5ASgGlH6mIURKZMDSTApJUGSRISgiSTJ0GJqZ7UgVpuoNqAuBggDAH3FMMiE4CmrMgwowEgcJOWha9IqVGGoyHaTBb+aO8KCpZOaSHAtIE55RoVghU7aU4G6F9IjBQABEwJoV7pTGeoz1DpYXDUewStEPa0CHsnIJGFv1n6ZZsJwq/T6dN9zFJs02OJ1k7jgq71WjqJI3WXVaxPYVsf4Vo1JOndxER2XPW9ZzDlaDbvIIMEndZ2Llb1Fpbq0mZAERgYyqFch9ZgIbLZnGMbKOp1JrcF2TmQdliX/VJqBzCcc90pzT103Va/tpjuf4WVfiabnjDmZHYgd1J1W7DqdGo2IIIPhyy7y9BYWgwSB+6r5GsildO1hxk5XRfU/UxdMoMb7WsEmf1RssC2Dcj8xgA8BXy9rcETHKq+M+qo/+HcRLXNPhUri2cww4QVs/inA4GFR6tVLi0nsr463xnVAFMSkhWpHlOhBThAOnBTJiUAUpimRJAEJIyUJQCCUpgkgkzAgrIggegwpwhKNiAZXLOuWkFuY4VSFPahFDY61XoVWMcxmiqMPAEB3lYuhWTTSDQFnpla3T2faS34wpH1XOPuJOMT2R02A7LSLppMpljQWEnWNyD3U3o8YpbBwk5s7lXKtKNhKgnuEvsYVtZBxgkgeBKKvZaT7SHgmOx/cJg9SMPJR9aGt0Z5ZOoAYjEKW4rZkLLpV4VllWUYuJblgIlZ1Wk7eVfc7jsE7QMTsQnDYFYOOSgYMrWurf8zduVWoWgccmE9C5TrBzPT2LTgd/Kk6f0tz6jQQCEdLprWFrtycLe6XSAqsHglRapS6p9N06DHVqji5xPta0Q0ErnXVuy6L6+vHa20QfZAdHMrk4Kr9ZdLQqTuVSvipFTrukquZiajTJAIm0yZxtv4WpBST6U0IBJJwEQagBTozTQJESSZJMGSTpQg1iFE5W3MULqRUaauQrdhaF7gxolzgYHcoGUJPZWKVJ7SC2ZGxG4T+iVatJzHFj2lrgYIPCntacjBypXUnl2p3uMydWSVYqVCdMtGMe0RKi9hVDuETHTMq0KdM5cIRsoMP2qPqBR1OA9qKndEH3SFeFo0IX6RvB/ZK3TSMZULdTGOc2CZEbBS1bdpa1w1Q4Z1NLSD/lKleGIgED7YxCarcawG5EbZwoUputANijcABkfwnewjdpcEDYfhodHO8JykqveAcKWlWUfV6LWVNLNgBOZzyq9N61io2qNSQSfhS0zIjkLMpVMK3SqRtyElJrtw0xMIOn08hwzG48KtdPiAd1L0qodROwg5SNp21UGoBHtyfhWre6b+JZGQMLLoP9xM8Z+Fa6Zb6Cbur7aYOByeynD1R+sLrXdOxhgDVny0NLiTPAUF1X11XPOznE/sr7bQERkiJlXPGd9ZTqpPgKzQaAAXAEOcAO+VYrW4aNVPbZwMHPhUahjQ4GTvH6SqlTjZr2LW1C1jWOgNnP2zv8oOo9PIbNNzYcYj/tZ9vcE+pMEuAzzvwpLcvNUUmz90w7EY5VaTOq0y06XYKFrZwul6paNqQ5ramtoGvYsgbknhKrTp6BLGwRu0HbuCj6DmntgwipDur9Tpoc9rabj7/1iAB8obzpb6QkuYR3aZRoUnlRlOmVFhoTwiATFMEEYamATakhi4Aeylp5wRCnD2jZEKbjkNjyVz2mgfafKhJczyFq02EbvA7+0lBSeCCHDJOHQl9BVo1ziVZe8DZHU6aOHgjuEdPppiQZPZLdGM2pe5iFLTeCJEg+FdNoB94DfO5UjLVhnTUaABOW5Pwq8LFE+oRBOPhM6mQMt1fPKkDST7iQP7qRtMRyY5Lil4Zm0QSPy6gMAjBU1W3a0QHe/nwnFWkBpIaXHnsowBONuySkRuCP++FZtq1QtLQJB/SAP7qO5gsMiI2VWyuXadIVQlWpT1PdO4KjfRhW7RnucSpKrJV6qKNN0KxbVDKAUjOynYxCj13B2DxyjoN2DTgqvWkYiFNaYA7DKmnGhQtxrYzyASOVF9X3Z9T0G4p0wAB3McrR6BaFz9TzBBBaO6xPrERc1Izsjj2jrxjcrqLSlqaDqAbGB5XKyt7pBPp47qv6TxHP6tdSDWU3bSRAhczVOy2Oq1QWRnVOFjVyJwjj8HSfp5GrIJEHbceQmNU6nEE5wTzCjoVCJgxOEdF5DpG/8q0L/Trl4kNecxqByCBwr9e7OoPGHNO0DQW9iFF0uo0gy0ag4y7mEV/AaCOT/ZZdX1chdTu/WDIGhzcS3DSCmt7eQ6m8tfTAmA4B2rgShtWtLQD/ACp6Ns3wle8P5ZVWxAiZaCeeB2TOtWSYJ23PK3NnAjMbSNQ/hValJpI9oAnMTlE7HyxalONuVaFg2AXGEXU7bQ5nDScFWPwbTkugESIErT6TijUts6QQg/CjuFeZauadQ93zgIvwXORPEqfsfIB6Qd7tRHcYJ+EqtcT/AEy/TwHZKdJRUw9OpUOAIHPCldSO/I8pJKTOxz4yD4ClpXYEh4eCOBiPlJJBq76rSRBdJ7py2PCSSZCpvA8p/XwQNjuE6Sk8RtY0/k/spRTI2bvxKSSZo7uppaZGThU7CrEhMktZPCF6kP8ABVwJJIVBfh3fl3K2bXpYc2SMFv7h3cFMks7Vuf6gwjcznCtWNE6dW3b5SSRpx0XRaR1tP6cuXGfUlSbmsZB95gjskkr/AJp7/GYtrodQQ4F0DjCSS07/ABlEHWXjUGgDHIxKzXhOkjmeCmaiJymSVYS/0p2SSYjfyrPUqntaOAe/hJJZ9T1Uqz0ulrptJLQBIzurNS3EiM+QUkll1PWgXfd+aB/JVXql0xsBmoOkHPZOklx+lay+oVy5w3wOVf6dRLmzymSW3U8Tz+rwou5aHD5UlOiI+0j9ykksGj//2Q==` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
+      <t>&lt;img src="/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
     </r>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>「누군 놀고먹고 있는 줄 아십니까? 
 저도 일 중이라고요」
 (딸깍)
-&lt;img src={`${process.env.PUBLIC_URL}/image/click.jpg`} style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
@@ -894,7 +894,7 @@
   &lt;div style="font-size:5px;"&gt;ㅤ&lt;/div&gt;
   - 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴) (진짜임)
   &lt;/div&gt;
-  &lt;img src=`${process.env.PUBLIC_URL}/image/gold.jpg` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+  &lt;img src="/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[]</t>
@@ -936,7 +936,7 @@
 사촌 정도 하겠습니다."
 ㅤ
 - 2023.10.24. Instagram 中
-&lt;img src=`${process.env.PUBLIC_URL}/image/wind.png` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
+&lt;img src="/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"19.3px"},
@@ -1040,7 +1040,7 @@
 - 2023년 9월 24일 방천구장에서
 ㅤ
 이후로 민석을 보는 눈빛이 심상치 않다.
-&lt;img src=`${process.env.PUBLIC_URL}/image/marine.svg` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"20px", "textAlign": "left"},
@@ -1204,7 +1204,7 @@
 「돼」
 ㅤ
 -2023.10.28. 이동진 환골탈태를 준비하다.
-&lt;img src=`${process.env.PUBLIC_URL}/image/onePunch.png` style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
+&lt;img src="/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"16px", "font-family": "Stylish"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="813484616"/>
-        <c:axId val="233153734"/>
+        <c:axId val="1355840531"/>
+        <c:axId val="1812952704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="813484616"/>
+        <c:axId val="1355840531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233153734"/>
+        <c:crossAx val="1812952704"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233153734"/>
+        <c:axId val="1812952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="813484616"/>
+        <c:crossAx val="1355840531"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1804192638"/>
-        <c:axId val="3705180"/>
+        <c:axId val="538336658"/>
+        <c:axId val="1214550582"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1804192638"/>
+        <c:axId val="538336658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3705180"/>
+        <c:crossAx val="1214550582"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3705180"/>
+        <c:axId val="1214550582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1804192638"/>
+        <c:crossAx val="538336658"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1906324906"/>
-        <c:axId val="482390945"/>
+        <c:axId val="838629945"/>
+        <c:axId val="732226909"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1906324906"/>
+        <c:axId val="838629945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482390945"/>
+        <c:crossAx val="732226909"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482390945"/>
+        <c:axId val="732226909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906324906"/>
+        <c:crossAx val="838629945"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1002379492"/>
-        <c:axId val="2142300934"/>
+        <c:axId val="1785878234"/>
+        <c:axId val="1992277371"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1002379492"/>
+        <c:axId val="1785878234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142300934"/>
+        <c:crossAx val="1992277371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142300934"/>
+        <c:axId val="1992277371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002379492"/>
+        <c:crossAx val="1785878234"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="391652129"/>
-        <c:axId val="1678817499"/>
+        <c:axId val="1899841010"/>
+        <c:axId val="1244467629"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391652129"/>
+        <c:axId val="1899841010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678817499"/>
+        <c:crossAx val="1244467629"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678817499"/>
+        <c:axId val="1244467629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391652129"/>
+        <c:crossAx val="1899841010"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -509,7 +509,7 @@
     <t>「누군 놀고먹고 있는 줄 아십니까? 
 저도 일 중이라고요」
 (딸깍)
-&lt;img src="/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/click.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1355840531"/>
-        <c:axId val="1812952704"/>
+        <c:axId val="2040340016"/>
+        <c:axId val="976665647"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1355840531"/>
+        <c:axId val="2040340016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812952704"/>
+        <c:crossAx val="976665647"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812952704"/>
+        <c:axId val="976665647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355840531"/>
+        <c:crossAx val="2040340016"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="538336658"/>
-        <c:axId val="1214550582"/>
+        <c:axId val="865364114"/>
+        <c:axId val="243423133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="538336658"/>
+        <c:axId val="865364114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214550582"/>
+        <c:crossAx val="243423133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214550582"/>
+        <c:axId val="243423133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538336658"/>
+        <c:crossAx val="865364114"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="838629945"/>
-        <c:axId val="732226909"/>
+        <c:axId val="1752123574"/>
+        <c:axId val="1627531056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="838629945"/>
+        <c:axId val="1752123574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732226909"/>
+        <c:crossAx val="1627531056"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="732226909"/>
+        <c:axId val="1627531056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838629945"/>
+        <c:crossAx val="1752123574"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1785878234"/>
-        <c:axId val="1992277371"/>
+        <c:axId val="1467606358"/>
+        <c:axId val="474500904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1785878234"/>
+        <c:axId val="1467606358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1992277371"/>
+        <c:crossAx val="474500904"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1992277371"/>
+        <c:axId val="474500904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785878234"/>
+        <c:crossAx val="1467606358"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1899841010"/>
-        <c:axId val="1244467629"/>
+        <c:axId val="430715562"/>
+        <c:axId val="71777529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1899841010"/>
+        <c:axId val="430715562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244467629"/>
+        <c:crossAx val="71777529"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244467629"/>
+        <c:axId val="71777529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899841010"/>
+        <c:crossAx val="430715562"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -397,7 +397,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>&lt;img src="/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
+      <t>&lt;img src="/rascal_photo_card/image/beaver.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.4;" /&gt;</t>
     </r>
   </si>
   <si>
@@ -894,7 +894,7 @@
   &lt;div style="font-size:5px;"&gt;ㅤ&lt;/div&gt;
   - 은퇴왕 산복 D 희제 (23년 12월 10일 은퇴) (진짜임)
   &lt;/div&gt;
-  &lt;img src="/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+  &lt;img src="/rascal_photo_card/image/gold.jpg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[]</t>
@@ -936,7 +936,7 @@
 사촌 정도 하겠습니다."
 ㅤ
 - 2023.10.24. Instagram 中
-&lt;img src="/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/wind.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.8;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"19.3px"},
@@ -1040,7 +1040,7 @@
 - 2023년 9월 24일 방천구장에서
 ㅤ
 이후로 민석을 보는 눈빛이 심상치 않다.
-&lt;img src="/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/marine.svg" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.2;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"20px", "textAlign": "left"},
@@ -1204,7 +1204,7 @@
 「돼」
 ㅤ
 -2023.10.28. 이동진 환골탈태를 준비하다.
-&lt;img src="/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
+&lt;img src="/rascal_photo_card/image/onePunch.png" style="position:absolute; top:0; left:0; width: 100%; height: 100%; opacity: 0.1;" /&gt;</t>
   </si>
   <si>
     <t>[{"fontSize":"16px", "font-family": "Stylish"},
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2040340016"/>
-        <c:axId val="976665647"/>
+        <c:axId val="463044470"/>
+        <c:axId val="1466021229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040340016"/>
+        <c:axId val="463044470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976665647"/>
+        <c:crossAx val="1466021229"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="976665647"/>
+        <c:axId val="1466021229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040340016"/>
+        <c:crossAx val="463044470"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="865364114"/>
-        <c:axId val="243423133"/>
+        <c:axId val="1228871988"/>
+        <c:axId val="1049065299"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="865364114"/>
+        <c:axId val="1228871988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243423133"/>
+        <c:crossAx val="1049065299"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243423133"/>
+        <c:axId val="1049065299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="865364114"/>
+        <c:crossAx val="1228871988"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1752123574"/>
-        <c:axId val="1627531056"/>
+        <c:axId val="237488779"/>
+        <c:axId val="387129514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1752123574"/>
+        <c:axId val="237488779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627531056"/>
+        <c:crossAx val="387129514"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627531056"/>
+        <c:axId val="387129514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1752123574"/>
+        <c:crossAx val="237488779"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1467606358"/>
-        <c:axId val="474500904"/>
+        <c:axId val="2086463328"/>
+        <c:axId val="537256110"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1467606358"/>
+        <c:axId val="2086463328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474500904"/>
+        <c:crossAx val="537256110"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474500904"/>
+        <c:axId val="537256110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1467606358"/>
+        <c:crossAx val="2086463328"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="430715562"/>
-        <c:axId val="71777529"/>
+        <c:axId val="1194581052"/>
+        <c:axId val="2124503997"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430715562"/>
+        <c:axId val="1194581052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71777529"/>
+        <c:crossAx val="2124503997"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71777529"/>
+        <c:axId val="2124503997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430715562"/>
+        <c:crossAx val="1194581052"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>

--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -513,7 +513,7 @@
   </si>
   <si>
     <t>[{"fontSize":"23px", "textAlign":"left"},
-{"fontSize":"30px", "textAlign":"right"},{"fontSize":"50px"}]</t>
+{"fontSize":"30px", "textAlign":"right"},{"fontSize":"30px"}]</t>
   </si>
   <si>
     <t>KIM BEOM HUI</t>
@@ -800,7 +800,7 @@
 {"fontSize":"20px", "fontFamily":"Black And White Picture", "textShadow": "2px 2px 0px rgba(191, 0, 0, 0.8)"},
 {"fontSize":"20px", "fontFamily":"Black And White Picture", "textShadow": "2px 2px 0px rgba(159, 0, 0, 0.8)"},
 {"fontSize":"5px"},
-{"fontSize":"16px"},
+{"fontSize":"15px"},
 {"fontSize":"16px"}]</t>
   </si>
   <si>
@@ -1050,7 +1050,7 @@
   {"fontSize":"5px"},
   {"fontSize":"15px"},
   {"fontSize":"5px"},
-  {"fontSize":"10px"}]</t>
+  {"fontSize":"13px"}]</t>
   </si>
   <si>
     <t>PARK JAE HYUN</t>
@@ -2135,11 +2135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="463044470"/>
-        <c:axId val="1466021229"/>
+        <c:axId val="306851904"/>
+        <c:axId val="2010410329"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463044470"/>
+        <c:axId val="306851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,10 +2191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1466021229"/>
+        <c:crossAx val="2010410329"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1466021229"/>
+        <c:axId val="2010410329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463044470"/>
+        <c:crossAx val="306851904"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2490,11 +2490,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1228871988"/>
-        <c:axId val="1049065299"/>
+        <c:axId val="593355421"/>
+        <c:axId val="1115978468"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228871988"/>
+        <c:axId val="593355421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,10 +2546,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1049065299"/>
+        <c:crossAx val="1115978468"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1049065299"/>
+        <c:axId val="1115978468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228871988"/>
+        <c:crossAx val="593355421"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2845,11 +2845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="237488779"/>
-        <c:axId val="387129514"/>
+        <c:axId val="1567164582"/>
+        <c:axId val="1437396050"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237488779"/>
+        <c:axId val="1567164582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,10 +2901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387129514"/>
+        <c:crossAx val="1437396050"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387129514"/>
+        <c:axId val="1437396050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237488779"/>
+        <c:crossAx val="1567164582"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3240,11 +3240,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2086463328"/>
-        <c:axId val="537256110"/>
+        <c:axId val="477432180"/>
+        <c:axId val="1790203071"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086463328"/>
+        <c:axId val="477432180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,10 +3296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537256110"/>
+        <c:crossAx val="1790203071"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537256110"/>
+        <c:axId val="1790203071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086463328"/>
+        <c:crossAx val="477432180"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3464,11 +3464,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1194581052"/>
-        <c:axId val="2124503997"/>
+        <c:axId val="1572933086"/>
+        <c:axId val="2052995018"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1194581052"/>
+        <c:axId val="1572933086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,10 +3520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124503997"/>
+        <c:crossAx val="2052995018"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124503997"/>
+        <c:axId val="2052995018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3588,7 +3588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194581052"/>
+        <c:crossAx val="1572933086"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -13886,7 +13886,7 @@
       <c r="I5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="K5" s="41"/>

--- a/build/rascal_data.xlsx
+++ b/build/rascal_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="231">
   <si>
     <t>◎ 라스칼 통산 성적</t>
   </si>
@@ -204,9 +204,6 @@
     <t>방어율</t>
   </si>
   <si>
-    <t>RBI</t>
-  </si>
-  <si>
     <t>장타</t>
   </si>
   <si>
@@ -216,19 +213,7 @@
     <t>V.C</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>ERA</t>
-  </si>
-  <si>
-    <t>K/9</t>
-  </si>
-  <si>
-    <t>H/9</t>
-  </si>
-  <si>
-    <t>BB/9</t>
+    <t>피안타율</t>
   </si>
   <si>
     <t>WHIP</t>
@@ -581,18 +566,12 @@
     <t>짧은 시간 투수로서의 
 가능성만큼은 보여주고 떠납니다. 
 ㅤ
-다행히 더 좋은 주인을 만나 
-유니폼을 새로 살 필요는 없을 것 같습니다.
-ㅤ
 새로운 도전과 목표를 응원하며, 
 팀에 돌아오는 그날을 기대합니다.</t>
   </si>
   <si>
     <t>[{"fontSize":"20px"},
 {"fontSize":"20px"},
-{"fontSize":"5px"},
-{"fontSize":"20px"},
-{"fontSize":"18px"},
 {"fontSize":"5px"},
 {"fontSize":"20px"},
 {"fontSize":"19px"},
@@ -1460,9 +1439,6 @@
     <t>탈삼진율</t>
   </si>
   <si>
-    <t>피안타율</t>
-  </si>
-  <si>
     <t>컨트롤</t>
   </si>
   <si>
@@ -2100,11 +2076,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="730159971"/>
-        <c:axId val="1849518898"/>
+        <c:axId val="393072831"/>
+        <c:axId val="1849460430"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730159971"/>
+        <c:axId val="393072831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,10 +2132,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1849518898"/>
+        <c:crossAx val="1849460430"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1849518898"/>
+        <c:axId val="1849460430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730159971"/>
+        <c:crossAx val="393072831"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2455,11 +2431,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1131329594"/>
-        <c:axId val="1146470842"/>
+        <c:axId val="1995299215"/>
+        <c:axId val="1664030350"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1131329594"/>
+        <c:axId val="1995299215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,10 +2487,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146470842"/>
+        <c:crossAx val="1664030350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146470842"/>
+        <c:axId val="1664030350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1131329594"/>
+        <c:crossAx val="1995299215"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2810,11 +2786,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="483462939"/>
-        <c:axId val="1664368956"/>
+        <c:axId val="1988679330"/>
+        <c:axId val="1871119409"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="483462939"/>
+        <c:axId val="1988679330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,10 +2842,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664368956"/>
+        <c:crossAx val="1871119409"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1664368956"/>
+        <c:axId val="1871119409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483462939"/>
+        <c:crossAx val="1988679330"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3205,11 +3181,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1922127048"/>
-        <c:axId val="313322215"/>
+        <c:axId val="476709138"/>
+        <c:axId val="412092314"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1922127048"/>
+        <c:axId val="476709138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,10 +3237,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313322215"/>
+        <c:crossAx val="412092314"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313322215"/>
+        <c:axId val="412092314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922127048"/>
+        <c:crossAx val="476709138"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3429,11 +3405,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66266737"/>
-        <c:axId val="795537031"/>
+        <c:axId val="2096569564"/>
+        <c:axId val="1832880983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66266737"/>
+        <c:axId val="2096569564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,10 +3461,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795537031"/>
+        <c:crossAx val="1832880983"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="795537031"/>
+        <c:axId val="1832880983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3553,7 +3529,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66266737"/>
+        <c:crossAx val="2096569564"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
@@ -5302,7 +5278,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -5312,10 +5288,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -6296,10 +6272,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -6308,7 +6284,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>49</v>
@@ -6338,7 +6314,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>58</v>
@@ -9961,19 +9937,19 @@
         <v>33</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -13484,25 +13460,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
@@ -13691,42 +13667,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="I1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="J1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>8</v>
@@ -13735,31 +13711,31 @@
         <v>29.0</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="37">
         <v>7.0</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K2" s="42"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>9</v>
@@ -13768,31 +13744,31 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F3" s="37">
         <v>50.0</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K3" s="42"/>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>10</v>
@@ -13801,31 +13777,31 @@
         <v>50.0</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F4" s="37">
         <v>100.0</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K4" s="42"/>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>11</v>
@@ -13834,31 +13810,31 @@
         <v>12.0</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" s="37">
         <v>1.0</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K5" s="42"/>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>12</v>
@@ -13867,33 +13843,33 @@
         <v>46.0</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="37">
         <v>100.0</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>13</v>
@@ -13902,31 +13878,31 @@
         <v>91.0</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F7" s="37">
         <v>100.0</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>14</v>
@@ -13935,33 +13911,33 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="37">
         <v>100.0</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>15</v>
@@ -13970,31 +13946,31 @@
         <v>27.0</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F9" s="37">
         <v>1.0</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K9" s="42"/>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>16</v>
@@ -14003,31 +13979,31 @@
         <v>13.0</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F10" s="37">
         <v>50.0</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K10" s="42"/>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>17</v>
@@ -14036,29 +14012,29 @@
         <v>25.0</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F11" s="37">
         <v>0.1</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K11" s="42"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>17</v>
@@ -14067,31 +14043,31 @@
         <v>25.0</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F12" s="37">
         <v>12.0</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K12" s="42"/>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>18</v>
@@ -14100,31 +14076,31 @@
         <v>21.0</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F13" s="37">
         <v>1.0</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K13" s="42"/>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>19</v>
@@ -14133,31 +14109,31 @@
         <v>55.0</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F14" s="37">
         <v>64.0</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K14" s="42"/>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>20</v>
@@ -14166,31 +14142,31 @@
         <v>88.0</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F15" s="37">
         <v>100.0</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K15" s="42"/>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>21</v>
@@ -14199,31 +14175,31 @@
         <v>0.0</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F16" s="37">
         <v>12.11</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K16" s="42"/>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>22</v>
@@ -14232,31 +14208,31 @@
         <v>18.0</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F17" s="37">
         <v>2.0</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K17" s="42"/>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>23</v>
@@ -14265,33 +14241,33 @@
         <v>100.0</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" s="37">
         <v>100.0</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>24</v>
@@ -14300,31 +14276,31 @@
         <v>17.0</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F19" s="37">
         <v>58.0</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K19" s="42"/>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>25</v>
@@ -14333,31 +14309,31 @@
         <v>14.0</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F20" s="37">
         <v>100.0</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K20" s="42"/>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>26</v>
@@ -14366,31 +14342,31 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F21" s="37">
         <v>100.0</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K21" s="42"/>
     </row>
     <row r="22">
       <c r="A22" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>27</v>
@@ -14399,31 +14375,31 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F22" s="37">
         <v>10.0</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K22" s="42"/>
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>28</v>
@@ -14432,25 +14408,25 @@
         <v>20.0</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F23" s="37">
         <v>46.0</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K23" s="42"/>
     </row>
@@ -26160,13 +26136,13 @@
         <v>39</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>34</v>
@@ -26198,7 +26174,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B2" s="28">
         <f t="shared" ref="B2:Q2" si="1">MAX(B3:B19)</f>
@@ -26265,7 +26241,7 @@
         <v>0.6803333333</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
@@ -30365,16 +30341,16 @@
         <v>58</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>32</v>
@@ -30421,7 +30397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B2" s="62">
         <f>MAX(B3:B7)</f>
@@ -30956,7 +30932,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -33354,7 +33330,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -33406,10 +33382,10 @@
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="71" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>33</v>
@@ -34358,10 +34334,10 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="71" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>46</v>
@@ -34388,10 +34364,10 @@
         <v>52</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L28" s="71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M28" s="71" t="s">
         <v>41</v>
@@ -34400,7 +34376,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="71" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P28" s="71" t="s">
         <v>58</v>
